--- a/R/2022FallFseminar/time2.xlsx
+++ b/R/2022FallFseminar/time2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2fc81b4858d9b23/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayumu/Documents/GitHub/ayumu-tanaka.github.io/R/2022FallFseminar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{DC57547D-4CF9-426C-89CF-C29BFC436EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{680054E9-BA8E-427F-854C-944197AC6D1E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E58AA9-8707-C84B-8564-914682EBB200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" xr2:uid="{2DBCD1C4-D080-424C-8DF8-25DA06533C6A}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="19180" windowHeight="10060" xr2:uid="{2DBCD1C4-D080-424C-8DF8-25DA06533C6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,98 +50,52 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>田中</t>
-    <rPh sb="0" eb="2">
-      <t>タナカ</t>
-    </rPh>
+    <t>NO1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>岡野</t>
-    <rPh sb="0" eb="2">
-      <t>オカノ</t>
-    </rPh>
+    <t>NO2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>矢嶋</t>
-    <rPh sb="0" eb="2">
-      <t>ヤジマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小田切</t>
-    <rPh sb="0" eb="3">
-      <t>オダギリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>古川</t>
-    <rPh sb="0" eb="2">
-      <t>フルカワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>城戸</t>
-    <rPh sb="0" eb="2">
-      <t>キド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>落合</t>
-    <rPh sb="0" eb="2">
-      <t>オチアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>林</t>
-    <rPh sb="0" eb="1">
-      <t>ハヤシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>尾﨑</t>
-    <rPh sb="0" eb="2">
-      <t>オザキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岩元</t>
-    <rPh sb="0" eb="2">
-      <t>イワモト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>花島</t>
-    <rPh sb="0" eb="2">
-      <t>ハナシマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>青木</t>
-  </si>
-  <si>
-    <t>蓮見</t>
-    <rPh sb="0" eb="2">
-      <t>ハスミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>NO3</t>
+  </si>
+  <si>
+    <t>NO4</t>
+  </si>
+  <si>
+    <t>NO5</t>
+  </si>
+  <si>
+    <t>NO6</t>
+  </si>
+  <si>
+    <t>NO7</t>
+  </si>
+  <si>
+    <t>NO8</t>
+  </si>
+  <si>
+    <t>NO9</t>
+  </si>
+  <si>
+    <t>NO10</t>
+  </si>
+  <si>
+    <t>NO11</t>
+  </si>
+  <si>
+    <t>NO12</t>
+  </si>
+  <si>
+    <t>NO13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,13 +454,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E44C73B-526E-4F16-AAFE-83549989A8DB}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="306" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="208" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -528,7 +482,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -539,7 +493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -550,7 +504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -561,7 +515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -572,7 +526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -583,7 +537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -594,7 +548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -605,7 +559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -616,7 +570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -627,7 +581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -638,7 +592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -649,7 +603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
